--- a/medicine/Enfance/Clarice_Lispector/Clarice_Lispector.xlsx
+++ b/medicine/Enfance/Clarice_Lispector/Clarice_Lispector.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarice Lispector, née le 10 décembre 1920 à Tchetchelnyk (actuelle Ukraine) et morte le 9 décembre 1977 à Rio de Janeiro, est une femme de lettres brésilienne. 
 Reconnue internationalement pour ses romans novateurs, mais aussi grande nouvelliste et journaliste de renom, elle est considérée comme un des auteurs brésiliens les plus importants du vingtième siècle (bien que le mot « écrivain » ait un féminin en portugais, Clarice Lispector a toujours refusé son utilisation, assurant « appartenir aux deux sexes »)
-Issue d'une famille juive, elle est décrite par Benjamin Moser, comme « l'écrivain juif le plus important depuis Kafka »[1].
+Issue d'une famille juive, elle est décrite par Benjamin Moser, comme « l'écrivain juif le plus important depuis Kafka ».
 </t>
         </is>
       </c>
@@ -515,24 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines familiales et formation
-Chaya Pinkhasovna Lispector naît à Tchéchelnyk, un shtetl d’Ukraine alors que sa famille se prépare à partir pour le Brésil, fuyant la persécution des juifs en Ukraine[2] après la Révolution de 1917[3]. 
-Elle est la plus jeune des trois filles de Pinkhas et Mania Lispector[réf. nécessaire]. Sa mère aurait été violée durant un pogrom, contractant la syphilis lors de cette agression[4].
-Elle a seulement deux mois quand la famille arrive au Brésil, s'installant d’abord à Maceió (Alagoas), où sa mère a des parents, plus tard à Recife (Pernambouc), où Clarice fait sa scolarité et où elle écrit ses premiers essais. Après la mort de sa mère de Clarice en 1929, son père décide que sa famille doit revenir vivre à Rio de Janeiro, alors que la jeune fille a déjà 14 ans. À Rio, elle étudie le droit[3].
-Mariage et séjours en Europe (1943-1959)
-En 1943, elle épouse un camarade de classe, Maury Gurgel Valente. 
-Son mari se lance dans une carrière diplomatique, qui les conduit dans différents pays, les États-Unis, l'Italie, la Suisse et l'Angleterre. En Italie, pendant la Seconde Guerre mondiale, le couple accompagne la Force expéditionnaire brésilienne qui combat au sein de la 5e armée américaine[5]. 
-Ils voyagent ainsi pendant une quinzaine d'années. Deux fils naissent pendant cette période. Clarice Lispector se sépare de son mari en 1959, et retourne avec ses enfants au Brésil[3].
-Carrière d'écrivain et de journaliste
-Elle parle couramment le français, mais aussi l'anglais et maîtrise convenablement plusieurs autres langues, en particulier l’italien et l’allemand. Ses compétences lui permettent de traduire des livres de l'anglais et du français. 
-Elle entend parler le yiddish à la maison jusqu'à la mort de sa mère, mais affirme que le portugais est la langue de son cœur et n'a jamais écrit dans une autre langue. 
-En 1944, elle publie son premier roman Près du cœur sauvage (Perto do coração selvagem). Des critiques croient déceler dans ses publications l'influence des œuvres de Virginia Woolf et de James Joyce[6],[7],[8], mais elle n’a alors lu ni l’un ni l’autre. Ce roman, comme toutes les œuvres à venir, est marqué par une focalisation intense sur les états intérieurs, l'introspection, les émotions les plus profondes, la foi et la solitude interne. Mais elle ne s'abandonne pas à l'introspection et ne se laisse pas abattre, concluant Près du cœur sauvage par cette affirmation : « De toute lutte ou repos, je me lèverai forte et belle comme un jeune cheval ». 
-Bâtisseur de ruines est le deuxième roman traduit en français, l'histoire d'un homme qui explore la solitude et réapprend le langage après avoir tué sa femme. La Passion selon G. H., un de ses derniers ouvrages,  décrit avec minutie et un luxe de commentaires, l'expérience initiatique d'une femme, la narratrice, qui découvre dans sa répulsion fascinée pour un cafard une image d'elle-même[3],[9],[10],[11],[12].
-Elle écrit aussi pour la presse, rédigeant notamment, d'août 1967 à décembre 1973, des chroniques souvent drôles pour l'édition du weekend d'un quotidien national, O Jornal do Brasil[8].
-Son dernier roman, L'Heure de l'étoile (A hora da estrela), raconte la vie d'une femme misérable de Rio de Janeiro, humiliée dans son intimité la plus intime[3]. Le narrateur s'appelle Rodrigo S.M., un auteur fictif. Écrit vers la fin de sa vie, ce dernier roman diffère nettement des précédents, en se consacrant très directement et explicitement à la pauvreté et à la marginalité au Brésil. Parmi ses meilleurs commentateurs en français, il faut citer Hélène Cixous[13] et Claire Varin[14].
-Clarice Lispector, dont les œuvres ont pour thème l'univers féminin, a également publié plusieurs textes de littérature d'enfance et de jeunesse où elle s'efforce de battre en brèche les stéréotypes de genre. Traductrice, elle signe le texte portugais du roman policier Hercule Poirot quitte la scène d'Agatha Christie.
-Mort et funérailles
-Elle meurt d’un cancer en 1977, la veille de son 57e anniversaire. Elle est enterrée au cimetière juif de Caju à Rio de Janeiro. 
+          <t>Origines familiales et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaya Pinkhasovna Lispector naît à Tchéchelnyk, un shtetl d’Ukraine alors que sa famille se prépare à partir pour le Brésil, fuyant la persécution des juifs en Ukraine après la Révolution de 1917. 
+Elle est la plus jeune des trois filles de Pinkhas et Mania Lispector[réf. nécessaire]. Sa mère aurait été violée durant un pogrom, contractant la syphilis lors de cette agression.
+Elle a seulement deux mois quand la famille arrive au Brésil, s'installant d’abord à Maceió (Alagoas), où sa mère a des parents, plus tard à Recife (Pernambouc), où Clarice fait sa scolarité et où elle écrit ses premiers essais. Après la mort de sa mère de Clarice en 1929, son père décide que sa famille doit revenir vivre à Rio de Janeiro, alors que la jeune fille a déjà 14 ans. À Rio, elle étudie le droit.
 </t>
         </is>
       </c>
@@ -558,12 +561,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hommages</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le 10 décembre 2018, Google fête le 98e anniversaire de sa naissance avec un Google Doodle[15].</t>
+          <t>Mariage et séjours en Europe (1943-1959)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1943, elle épouse un camarade de classe, Maury Gurgel Valente. 
+Son mari se lance dans une carrière diplomatique, qui les conduit dans différents pays, les États-Unis, l'Italie, la Suisse et l'Angleterre. En Italie, pendant la Seconde Guerre mondiale, le couple accompagne la Force expéditionnaire brésilienne qui combat au sein de la 5e armée américaine. 
+Ils voyagent ainsi pendant une quinzaine d'années. Deux fils naissent pendant cette période. Clarice Lispector se sépare de son mari en 1959, et retourne avec ses enfants au Brésil.
+</t>
         </is>
       </c>
     </row>
@@ -588,13 +600,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière d'écrivain et de journaliste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle parle couramment le français, mais aussi l'anglais et maîtrise convenablement plusieurs autres langues, en particulier l’italien et l’allemand. Ses compétences lui permettent de traduire des livres de l'anglais et du français. 
+Elle entend parler le yiddish à la maison jusqu'à la mort de sa mère, mais affirme que le portugais est la langue de son cœur et n'a jamais écrit dans une autre langue. 
+En 1944, elle publie son premier roman Près du cœur sauvage (Perto do coração selvagem). Des critiques croient déceler dans ses publications l'influence des œuvres de Virginia Woolf et de James Joyce mais elle n’a alors lu ni l’un ni l’autre. Ce roman, comme toutes les œuvres à venir, est marqué par une focalisation intense sur les états intérieurs, l'introspection, les émotions les plus profondes, la foi et la solitude interne. Mais elle ne s'abandonne pas à l'introspection et ne se laisse pas abattre, concluant Près du cœur sauvage par cette affirmation : « De toute lutte ou repos, je me lèverai forte et belle comme un jeune cheval ». 
+Bâtisseur de ruines est le deuxième roman traduit en français, l'histoire d'un homme qui explore la solitude et réapprend le langage après avoir tué sa femme. La Passion selon G. H., un de ses derniers ouvrages,  décrit avec minutie et un luxe de commentaires, l'expérience initiatique d'une femme, la narratrice, qui découvre dans sa répulsion fascinée pour un cafard une image d'elle-même.
+Elle écrit aussi pour la presse, rédigeant notamment, d'août 1967 à décembre 1973, des chroniques souvent drôles pour l'édition du weekend d'un quotidien national, O Jornal do Brasil.
+Son dernier roman, L'Heure de l'étoile (A hora da estrela), raconte la vie d'une femme misérable de Rio de Janeiro, humiliée dans son intimité la plus intime. Le narrateur s'appelle Rodrigo S.M., un auteur fictif. Écrit vers la fin de sa vie, ce dernier roman diffère nettement des précédents, en se consacrant très directement et explicitement à la pauvreté et à la marginalité au Brésil. Parmi ses meilleurs commentateurs en français, il faut citer Hélène Cixous et Claire Varin.
+Clarice Lispector, dont les œuvres ont pour thème l'univers féminin, a également publié plusieurs textes de littérature d'enfance et de jeunesse où elle s'efforce de battre en brèche les stéréotypes de genre. Traductrice, elle signe le texte portugais du roman policier Hercule Poirot quitte la scène d'Agatha Christie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort et funérailles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle meurt d’un cancer en 1977, la veille de son 57e anniversaire. Elle est enterrée au cimetière juif de Caju à Rio de Janeiro. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le 10 décembre 2018, Google fête le 98e anniversaire de sa naissance avec un Google Doodle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans
-Perto do Coração Selvagem (1944) Publié en français sous le titre Près du coeur sauvage, traduit par Denise-Teresa Moutonnier, Paris, Plon, coll. « Roman », 1954 (BNF 32388422) ; réédition sous le même titre dans une nouvelle traduction de Regina Helena de Oliveira Machado, Paris, Des femmes, 1982  (ISBN 2-7210-0218-X)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Perto do Coração Selvagem (1944) Publié en français sous le titre Près du coeur sauvage, traduit par Denise-Teresa Moutonnier, Paris, Plon, coll. « Roman », 1954 (BNF 32388422) ; réédition sous le même titre dans une nouvelle traduction de Regina Helena de Oliveira Machado, Paris, Des femmes, 1982  (ISBN 2-7210-0218-X)
 O Lustre (1946) Publié en français sous le titre Le Lustre, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 1990  (ISBN 2-7210-0390-9)
 A Cidade Sitiada (1949) Publié en français sous le titre La Ville assiégée, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 1991  (ISBN 2-7210-0352-6)
 A Maçã no Escuro (1961) Publié en français sous le titre Le Bâtisseur de ruines, traduit par Violante Do Canto, Paris, Gallimard, coll. « Du monde entier », 1970  (ISBN 2-07-027179-X) ; réédition, Paris, Gallimard, coll. « L'imaginaire » no 424, 2000  (ISBN 2-07-075935-0)
@@ -602,24 +731,126 @@
 Uma Aprendizagem ou O Livro dos Prazeres (1969) Publié en français sous le titre Un apprentissage ou Le Livre des plaisirs, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 1992  (ISBN 2-7210-0426-3)
 Água Viva (1973) Publié en français sous le titre Água Viva, traduit par Regina Helena de Oliveira Machado, Paris, Des femmes, 1978  (ISBN 2-7210-0136-1)
 A Hora da Estrela (1977) Publié en français sous le titre L'Heure de l'étoile, traduit par Marguerite Wünscher, Paris, Des femmes, 1985  (ISBN 2-7210-0270-8)
-Um Sopro de Vida (Pulsações) (1978) Publié en français sous le titre Un souffle de vie, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 1998  (ISBN 2-7210-0470-0)
-Recueils de contes et nouvelles
-Alguns Contos... (1952)
+Um Sopro de Vida (Pulsações) (1978) Publié en français sous le titre Un souffle de vie, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 1998  (ISBN 2-7210-0470-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de contes et nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Alguns Contos... (1952)
 Feliz Aniversário (1960)
 Laços de Família (1960) Publié en français sous le titre Liens de famille, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 1989  (ISBN 2-7210-0384-4)
 A Legião Estrangeira (1964)
 Felicidade Clandestina (1971) Publié en français sous le titre Corps séparés : contes et nouvelles, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 1993  (ISBN 2-7210-0444-1)
 A Imitação da Rosa (1973)
 A Via Crucis do Corpo (1974) Publié en français sous le titre Passion des corps, précédé de La Belle et la Bête, traduit par Claude Farny, Paris, Des femmes, 1984  (ISBN 2-7210-0263-5) ; réédition dans une traduction révisée par Sylvie Durastanti, Paris, Des Femmes/A. Fouque, 2012  (ISBN 978-2-7210-0623-3)
-Onde Estivestes de Noite (1974) Publié en français sous le titre Où étais-tu pendant la nuit ?, traduit par Geneviève Leibrich et Nicole Biros, Paris, Des femmes, 1985  (ISBN 2-7210-0285-6)
-Ouvrages de littérature d'enfance et de jeunesse
-O Mistério do Coelho Pensante (1967) Publié en français sous le titre Le Mystère du lapin pensant, précédé de La Vie intime de Laura, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 2004  (ISBN 2-7210-0495-6)
+Onde Estivestes de Noite (1974) Publié en français sous le titre Où étais-tu pendant la nuit ?, traduit par Geneviève Leibrich et Nicole Biros, Paris, Des femmes, 1985  (ISBN 2-7210-0285-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>O Mistério do Coelho Pensante (1967) Publié en français sous le titre Le Mystère du lapin pensant, précédé de La Vie intime de Laura, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 2004  (ISBN 2-7210-0495-6)
 A Mulher que Matou os Peixes (1968) Publié en français sous le titre La Femme qui tuait les poissons, suivi d'une interview de l'auteure, traduit par Séverine Rosset et Lúcia Cherem, Paris, Ramsay-de Cortanze, 1990  (ISBN 2-85956-843-3) ; réédition de la même traduction sous le titre La Femme qui a tué les poissons, illustrations de Gabriella Giandelli, Paris, Seuil, 1977  (ISBN 2-02-028244-5)
 A Vida Íntima de Laura (1974) Publié en français sous le titre La Vie intime de Laura, suivi de Le Mystère du lapin pensant, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 2004  (ISBN 2-7210-0495-6)
 Quase de Verdade (1978)
-Como Nasceram as Estrelas: Doze Lendas Brasileiras (1987) Publié en français sous le titre Comment sont nées les étoiles : douze légendes brésiliennes, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 2005  (ISBN 2-7210-0511-1)
-Ouvrages posthumes
-A Bela e a Fera (1979), recueils de contes et nouvelles inédits
+Como Nasceram as Estrelas: Doze Lendas Brasileiras (1987) Publié en français sous le titre Comment sont nées les étoiles : douze légendes brésiliennes, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 2005  (ISBN 2-7210-0511-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clarice_Lispector</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvrages posthumes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A Bela e a Fera (1979), recueils de contes et nouvelles inédits
 A Descoberta do Mundo (1984), anthologie de chroniques parues dans le Jornal do Brasil entre août 1967 et décembre 1973 Publié en français sous le titre La Découverte du monde : 1967-1973, traduit par Jacques et Teresa Thiériot, Paris, Des femmes, 1995  (ISBN 2-7210-0452-2)
 Como Nasceram as Estrelas (1987), contes inédits pour enfants
 Cartas Perto do Coração (2001)
